--- a/data/years_ceramic_wos.xlsx
+++ b/data/years_ceramic_wos.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,7 +393,7 @@
         <v>2024</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -401,7 +401,7 @@
         <v>2023</v>
       </c>
       <c r="B3">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -409,7 +409,7 @@
         <v>2022</v>
       </c>
       <c r="B4">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
@@ -417,7 +417,7 @@
         <v>2021</v>
       </c>
       <c r="B5">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -425,7 +425,7 @@
         <v>2020</v>
       </c>
       <c r="B6">
-        <v>35</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
@@ -433,7 +433,7 @@
         <v>2019</v>
       </c>
       <c r="B7">
-        <v>31</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
@@ -441,7 +441,7 @@
         <v>2018</v>
       </c>
       <c r="B8">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9">
@@ -449,7 +449,7 @@
         <v>2017</v>
       </c>
       <c r="B9">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -457,7 +457,7 @@
         <v>2016</v>
       </c>
       <c r="B10">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
@@ -465,12 +465,196 @@
         <v>2015</v>
       </c>
       <c r="B11">
-        <v>14</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2014</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>2013</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>2012</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>2011</v>
+      </c>
+      <c r="B15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>2010</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>2009</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>2008</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2007</v>
+      </c>
+      <c r="B19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2006</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2005</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2004</v>
+      </c>
+      <c r="B22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2003</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2002</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2001</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2000</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>1998</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>1997</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>1996</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>1995</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>1994</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>1993</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>1992</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>1987</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:B34"/>
   </ignoredErrors>
 </worksheet>
 </file>